--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -474,7 +474,13 @@
     <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>診断サービスセクションのコード。 / Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -506,6 +512,9 @@
   </si>
   <si>
     <t>JP_DiagnosticReportCategory_VSの中から「LP7796-8」（Endoscopy（内視鏡））を指定する。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
     <t>DiagnosticReport.category:endoscopy.id</t>
@@ -1167,9 +1176,6 @@
   </si>
   <si>
     <t>JED Project（https://jedproject.jges.net/）が対象とする検査種別については、指定された質的診断コードを使用することを強く推奨する。</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ConclusionCodesJed_VS</t>
@@ -1550,7 +1556,7 @@
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.51953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
@@ -3005,24 +3011,26 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>139</v>
@@ -3043,24 +3051,24 @@
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>140</v>
@@ -3085,13 +3093,13 @@
         <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3121,7 +3129,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3157,21 +3165,21 @@
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3194,13 +3202,13 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3251,7 +3259,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3272,7 +3280,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3280,10 +3288,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3312,7 +3320,7 @@
         <v>97</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>99</v>
@@ -3353,19 +3361,19 @@
         <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3386,7 +3394,7 @@
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3394,10 +3402,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3420,19 +3428,19 @@
         <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -3481,7 +3489,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3499,10 +3507,10 @@
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3510,10 +3518,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3536,13 +3544,13 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3593,7 +3601,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3614,7 +3622,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3622,10 +3630,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3654,7 +3662,7 @@
         <v>97</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>99</v>
@@ -3695,19 +3703,19 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3728,7 +3736,7 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3736,10 +3744,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3765,23 +3773,23 @@
         <v>64</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>41</v>
@@ -3823,7 +3831,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3841,10 +3849,10 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3852,10 +3860,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3878,16 +3886,16 @@
         <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3937,7 +3945,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3955,10 +3963,10 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3966,10 +3974,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3995,21 +4003,21 @@
         <v>70</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>41</v>
@@ -4051,7 +4059,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4069,10 +4077,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4080,10 +4088,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4106,17 +4114,17 @@
         <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4126,7 +4134,7 @@
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>41</v>
@@ -4165,7 +4173,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4183,10 +4191,10 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4194,10 +4202,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4220,19 +4228,19 @@
         <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4281,7 +4289,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4299,10 +4307,10 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4310,10 +4318,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4336,19 +4344,19 @@
         <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4397,7 +4405,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4415,10 +4423,10 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4426,14 +4434,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4455,13 +4463,13 @@
         <v>141</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4487,11 +4495,11 @@
         <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
@@ -4509,7 +4517,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>50</v>
@@ -4524,28 +4532,28 @@
         <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4564,19 +4572,19 @@
         <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -4625,7 +4633,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4640,28 +4648,28 @@
         <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4680,19 +4688,19 @@
         <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4741,7 +4749,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4756,28 +4764,28 @@
         <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4796,19 +4804,19 @@
         <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -4857,7 +4865,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4872,28 +4880,28 @@
         <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4912,19 +4920,19 @@
         <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -4973,7 +4981,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4991,25 +4999,25 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5028,19 +5036,19 @@
         <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5089,7 +5097,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5104,28 +5112,28 @@
         <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5144,19 +5152,19 @@
         <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -5205,7 +5213,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5220,24 +5228,24 @@
         <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5260,19 +5268,19 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5321,7 +5329,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5339,10 +5347,10 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5350,14 +5358,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5376,19 +5384,19 @@
         <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5437,7 +5445,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5455,10 +5463,10 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5466,10 +5474,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5492,16 +5500,16 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5551,7 +5559,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5572,7 +5580,7 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5580,14 +5588,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5606,19 +5614,19 @@
         <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5667,7 +5675,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5685,10 +5693,10 @@
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5696,10 +5704,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5722,13 +5730,13 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5779,7 +5787,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5800,7 +5808,7 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5808,10 +5816,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5840,7 +5848,7 @@
         <v>97</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>99</v>
@@ -5893,7 +5901,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5914,7 +5922,7 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5922,14 +5930,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5951,10 +5959,10 @@
         <v>96</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>99</v>
@@ -6009,7 +6017,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6038,10 +6046,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6064,19 +6072,19 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6125,7 +6133,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6146,7 +6154,7 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6154,10 +6162,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6180,13 +6188,13 @@
         <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6237,7 +6245,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>50</v>
@@ -6258,7 +6266,7 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6266,14 +6274,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6292,19 +6300,19 @@
         <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6353,7 +6361,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6371,10 +6379,10 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6382,10 +6390,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6411,13 +6419,13 @@
         <v>141</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6443,11 +6451,11 @@
         <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>366</v>
+        <v>144</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>41</v>
@@ -6465,7 +6473,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6483,10 +6491,10 @@
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6494,10 +6502,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6520,19 +6528,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6581,7 +6589,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6599,10 +6607,10 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -619,7 +619,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Loinc_CS</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -619,7 +619,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Loinc_CS</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Coding.system</t>
